--- a/data/2016election.xlsx
+++ b/data/2016election.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="460" windowWidth="23400" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AA$59</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="313">
   <si>
     <t>Hillary Clinton</t>
   </si>
@@ -1019,6 +1020,24 @@
   </si>
   <si>
     <t>electoralvotesfactor</t>
+  </si>
+  <si>
+    <t>Turnout Rate</t>
+  </si>
+  <si>
+    <t>Non-Hispanic White</t>
+  </si>
+  <si>
+    <t>Non-Hispanic Black</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -4659,7 +4678,7 @@
   <dimension ref="A1:AA59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E58"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9646,9 +9665,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="C2">
+        <f>B2/0.614</f>
+        <v>1.0537459283387622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C6" si="0">B3/0.614</f>
+        <v>0.97557003257328989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.73127035830618892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.75407166123778502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -12118,7 +12217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
